--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3213.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3213.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.222476294249208</v>
+        <v>1.749791622161865</v>
       </c>
       <c r="B1">
-        <v>3.281542767557397</v>
+        <v>1.992416262626648</v>
       </c>
       <c r="C1">
-        <v>6.037201429385497</v>
+        <v>2.156231164932251</v>
       </c>
       <c r="D1">
-        <v>2.252162764655807</v>
+        <v>2.843078851699829</v>
       </c>
       <c r="E1">
-        <v>1.370856477735154</v>
+        <v>1.736220955848694</v>
       </c>
     </row>
   </sheetData>
